--- a/plots/percentile.xlsx
+++ b/plots/percentile.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61415F32-0B93-4245-884B-999925CB65F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE7D01-4A29-684A-A379-4F4BE000B9EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{CE54EF27-A627-8B41-94DA-798D7BEBB178}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{CE54EF27-A627-8B41-94DA-798D7BEBB178}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1793</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1793</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1793</definedName>
     <definedName name="percentile_out_1" localSheetId="0">Sheet1!$A$2:$B$1080</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2EA890A1-5E05-3345-830E-CA33A80F298C}" name="percentile_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="percentile_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/percentile_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -137,7 +142,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>99.9</a:t>
+              <a:t>99.9%</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -13494,6 +13499,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83426139892201889"/>
+          <c:y val="0.37494313210848645"/>
+          <c:w val="0.16379118140904247"/>
+          <c:h val="0.30193312792422683"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13507,7 +13522,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13539,12 +13554,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -14133,10 +14143,10 @@
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14165,7 +14175,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_out_1" connectionId="1" xr16:uid="{3F12B2EB-5F95-9D4E-82A8-142673C15AF0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="percentile_out_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14467,8 +14477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D708E0B-70DA-F146-A5DC-2E165834640E}">
   <dimension ref="A1:C1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/percentile.xlsx
+++ b/plots/percentile.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE7D01-4A29-684A-A379-4F4BE000B9EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432A0FC-337E-2645-AA17-D24177E7F0C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{CE54EF27-A627-8B41-94DA-798D7BEBB178}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CE54EF27-A627-8B41-94DA-798D7BEBB178}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1793</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1793</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1793</definedName>
     <definedName name="percentile_out_1" localSheetId="0">Sheet1!$A$2:$B$1080</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -51,7 +46,7 @@
     <t>Seconds</t>
   </si>
   <si>
-    <t>Theoretical</t>
+    <t>Theoretical Maximum</t>
   </si>
 </sst>
 </file>
@@ -128,7 +123,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -141,14 +136,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>99.9%</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Percentile</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -165,7 +160,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -183,7 +178,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6853307163284233E-2"/>
+          <c:y val="0.1194524959742351"/>
+          <c:w val="0.70758588964110747"/>
+          <c:h val="0.73754168410108156"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6731,7 +6736,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Theoretical</c:v>
+                  <c:v>Theoretical Maximum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13353,7 +13358,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13376,6 +13381,7 @@
         <c:axId val="699031023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13470,7 +13476,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13522,7 +13528,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14477,8 +14483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D708E0B-70DA-F146-A5DC-2E165834640E}">
   <dimension ref="A1:C1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
